--- a/fuentes/visuales/grado10/guion02/SolicitudGrafica_CN_10_02_CO_REC220.xlsx
+++ b/fuentes/visuales/grado10/guion02/SolicitudGrafica_CN_10_02_CO_REC220.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="173">
   <si>
     <t>Fecha:</t>
   </si>
@@ -520,15 +520,6 @@
     <t>Fotografía</t>
   </si>
   <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
     <t>Gráfico de aceleración contra tiempo</t>
   </si>
   <si>
@@ -553,18 +544,6 @@
     <t xml:space="preserve">Se debe agregar una a(m/s2) en el eje vertical y una t (s) en el eje horizontal a la imagen original. </t>
   </si>
   <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
     <t>(ver CN_10_02_REC220 pág. 5 pregunta 4)</t>
   </si>
   <si>
@@ -590,6 +569,24 @@
   </si>
   <si>
     <t>Malabarista</t>
+  </si>
+  <si>
+    <t>IMG02</t>
+  </si>
+  <si>
+    <t>IMG03</t>
+  </si>
+  <si>
+    <t>IMG04</t>
+  </si>
+  <si>
+    <t>IMG05</t>
+  </si>
+  <si>
+    <t>IMG06</t>
+  </si>
+  <si>
+    <t>IMG07</t>
   </si>
 </sst>
 </file>
@@ -2366,7 +2363,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2563,204 +2560,204 @@
     </row>
     <row r="10" spans="1:16" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C10" s="74" t="str">
         <f t="shared" ref="C10:C16" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso M5A</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E10" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="14" t="e">
-        <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE(#REF!,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G10" s="14" t="e">
+      <c r="F10" s="14" t="str">
+        <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CN_10_02_CO_IMG01n.png</v>
+      </c>
+      <c r="G10" s="14" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H10" s="14" t="e">
-        <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE(#REF!,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>#REF!</v>
+        <v>286 x 286 px</v>
+      </c>
+      <c r="H10" s="14" t="str">
+        <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>CN_10_02_CO_IMG01a.png</v>
       </c>
       <c r="I10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
       <c r="J10" s="81" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K10" s="78"/>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C11" s="74" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="14" t="e">
-        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(#REF!,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G11" s="14" t="e">
+      <c r="F11" s="14" t="str">
+        <f t="shared" ref="F11:F16" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CN_10_02_CO_IMG02n.png</v>
+      </c>
+      <c r="G11" s="14" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" s="14" t="e">
-        <f>IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(#REF!,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>#REF!</v>
+        <v>286 x 286 px</v>
+      </c>
+      <c r="H11" s="14" t="str">
+        <f t="shared" ref="H11:H74" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>CN_10_02_CO_IMG02a.png</v>
       </c>
       <c r="I11" s="14" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
       <c r="J11" s="81" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K11" s="81" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C12" s="74" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="14" t="e">
-        <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(#REF!,"_",$A12,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I12="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" s="14" t="e">
+      <c r="F12" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>CN_10_02_CO_IMG03n.png</v>
+      </c>
+      <c r="G12" s="14" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="14" t="e">
-        <f>IF(AND(I12&lt;&gt;"",I12&lt;&gt;0),IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(#REF!,"_",$A12,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>#REF!</v>
+        <v>286 x 286 px</v>
+      </c>
+      <c r="H12" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>CN_10_02_CO_IMG03a.png</v>
       </c>
       <c r="I12" s="14" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
       <c r="J12" s="81" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K12" s="81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C13" s="74" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F13" s="14" t="e">
-        <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),CONCATENATE(#REF!,"_",$A13,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I13="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="14" t="e">
+      <c r="F13" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>CN_10_02_CO_IMG04n.png</v>
+      </c>
+      <c r="G13" s="14" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="14" t="e">
-        <f>IF(AND(I13&lt;&gt;"",I13&lt;&gt;0),IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),CONCATENATE(#REF!,"_",$A13,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>#REF!</v>
+        <v>286 x 286 px</v>
+      </c>
+      <c r="H13" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>CN_10_02_CO_IMG04a.png</v>
       </c>
       <c r="I13" s="14" t="str">
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
       <c r="J13" s="81" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K13" s="78"/>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C14" s="74" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F14" s="14" t="e">
-        <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE(#REF!,"_",$A14,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I14="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G14" s="14" t="e">
+      <c r="F14" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>CN_10_02_CO_IMG05n.png</v>
+      </c>
+      <c r="G14" s="14" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H14" s="14" t="e">
-        <f>IF(AND(I14&lt;&gt;"",I14&lt;&gt;0),IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE(#REF!,"_",$A14,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>#REF!</v>
+        <v>286 x 286 px</v>
+      </c>
+      <c r="H14" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>CN_10_02_CO_IMG05a.png</v>
       </c>
       <c r="I14" s="14" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
       <c r="J14" s="81" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K14" s="80"/>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C15" s="74" t="str">
         <f t="shared" si="0"/>
@@ -2772,33 +2769,33 @@
       <c r="E15" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F15" s="14" t="e">
-        <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),CONCATENATE(#REF!,"_",$A15,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I15="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G15" s="14" t="e">
+      <c r="F15" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>CN_10_02_CO_IMG06n.png</v>
+      </c>
+      <c r="G15" s="14" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" s="14" t="e">
-        <f>IF(AND(I15&lt;&gt;"",I15&lt;&gt;0),IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),CONCATENATE(#REF!,"_",$A15,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>#REF!</v>
+        <v>286 x 286 px</v>
+      </c>
+      <c r="H15" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>CN_10_02_CO_IMG06a.png</v>
       </c>
       <c r="I15" s="14" t="str">
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
       <c r="J15" s="81" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K15" s="80"/>
     </row>
     <row r="16" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C16" s="74" t="str">
         <f t="shared" si="0"/>
@@ -2810,24 +2807,24 @@
       <c r="E16" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F16" s="14" t="e">
-        <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE(#REF!,"_",$A16,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I16="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G16" s="14" t="e">
+      <c r="F16" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>CN_10_02_CO_IMG07n.png</v>
+      </c>
+      <c r="G16" s="14" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H16" s="14" t="e">
-        <f>IF(AND(I16&lt;&gt;"",I16&lt;&gt;0),IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE(#REF!,"_",$A16,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>#REF!</v>
+        <v>286 x 286 px</v>
+      </c>
+      <c r="H16" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>CN_10_02_CO_IMG07a.png</v>
       </c>
       <c r="I16" s="14" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
       <c r="J16" s="81" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="K16" s="80"/>
     </row>
@@ -2846,7 +2843,7 @@
         <v/>
       </c>
       <c r="H17" s="14" t="str">
-        <f>IF(AND(I17&lt;&gt;"",I17&lt;&gt;0),IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE(#REF!,"_",$A17,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I17" s="14" t="str">
@@ -2871,7 +2868,7 @@
         <v/>
       </c>
       <c r="H18" s="14" t="str">
-        <f>IF(AND(I18&lt;&gt;"",I18&lt;&gt;0),IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE(#REF!,"_",$A18,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I18" s="14" t="str">
@@ -2896,7 +2893,7 @@
         <v/>
       </c>
       <c r="H19" s="14" t="str">
-        <f>IF(AND(I19&lt;&gt;"",I19&lt;&gt;0),IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(#REF!,"_",$A19,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I19" s="14" t="str">
@@ -2921,7 +2918,7 @@
         <v/>
       </c>
       <c r="H20" s="14" t="str">
-        <f>IF(AND(I20&lt;&gt;"",I20&lt;&gt;0),IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),CONCATENATE(#REF!,"_",$A20,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I20" s="14" t="str">
@@ -2946,7 +2943,7 @@
         <v/>
       </c>
       <c r="H21" s="14" t="str">
-        <f>IF(AND(I21&lt;&gt;"",I21&lt;&gt;0),IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),CONCATENATE(#REF!,"_",$A21,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I21" s="14" t="str">
@@ -2971,7 +2968,7 @@
         <v/>
       </c>
       <c r="H22" s="14" t="str">
-        <f>IF(AND(I22&lt;&gt;"",I22&lt;&gt;0),IF(OR(B21&lt;&gt;"",J22&lt;&gt;""),CONCATENATE(#REF!,"_",$A22,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I22" s="14" t="str">
@@ -2996,7 +2993,7 @@
         <v/>
       </c>
       <c r="H23" s="14" t="str">
-        <f>IF(AND(I23&lt;&gt;"",I23&lt;&gt;0),IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),CONCATENATE(#REF!,"_",$A23,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I23" s="14" t="str">
@@ -3021,7 +3018,7 @@
         <v/>
       </c>
       <c r="H24" s="14" t="str">
-        <f>IF(AND(I24&lt;&gt;"",I24&lt;&gt;0),IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),CONCATENATE(#REF!,"_",$A24,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I24" s="14" t="str">
@@ -3046,7 +3043,7 @@
         <v/>
       </c>
       <c r="H25" s="14" t="str">
-        <f>IF(AND(I25&lt;&gt;"",I25&lt;&gt;0),IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),CONCATENATE(#REF!,"_",$A25,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I25" s="14" t="str">
@@ -3071,7 +3068,7 @@
         <v/>
       </c>
       <c r="H26" s="14" t="str">
-        <f>IF(AND(I26&lt;&gt;"",I26&lt;&gt;0),IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),CONCATENATE(#REF!,"_",$A26,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I26" s="14" t="str">
@@ -3096,7 +3093,7 @@
         <v/>
       </c>
       <c r="H27" s="14" t="str">
-        <f>IF(AND(I27&lt;&gt;"",I27&lt;&gt;0),IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),CONCATENATE(#REF!,"_",$A27,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I27" s="14" t="str">
@@ -3121,7 +3118,7 @@
         <v/>
       </c>
       <c r="H28" s="14" t="str">
-        <f>IF(AND(I28&lt;&gt;"",I28&lt;&gt;0),IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),CONCATENATE(#REF!,"_",$A28,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I28" s="14" t="str">
@@ -3146,7 +3143,7 @@
         <v/>
       </c>
       <c r="H29" s="14" t="str">
-        <f>IF(AND(I29&lt;&gt;"",I29&lt;&gt;0),IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),CONCATENATE(#REF!,"_",$A29,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I29" s="14" t="str">
@@ -3171,7 +3168,7 @@
         <v/>
       </c>
       <c r="H30" s="14" t="str">
-        <f>IF(AND(I30&lt;&gt;"",I30&lt;&gt;0),IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),CONCATENATE(#REF!,"_",$A30,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I30" s="14" t="str">
@@ -3196,7 +3193,7 @@
         <v/>
       </c>
       <c r="H31" s="14" t="str">
-        <f>IF(AND(I31&lt;&gt;"",I31&lt;&gt;0),IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),CONCATENATE(#REF!,"_",$A31,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I31" s="14" t="str">
@@ -3221,7 +3218,7 @@
         <v/>
       </c>
       <c r="H32" s="14" t="str">
-        <f>IF(AND(I32&lt;&gt;"",I32&lt;&gt;0),IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),CONCATENATE(#REF!,"_",$A32,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I32" s="14" t="str">
@@ -3246,7 +3243,7 @@
         <v/>
       </c>
       <c r="H33" s="14" t="str">
-        <f>IF(AND(I33&lt;&gt;"",I33&lt;&gt;0),IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),CONCATENATE(#REF!,"_",$A33,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I33" s="14" t="str">
@@ -3271,7 +3268,7 @@
         <v/>
       </c>
       <c r="H34" s="14" t="str">
-        <f>IF(AND(I34&lt;&gt;"",I34&lt;&gt;0),IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),CONCATENATE(#REF!,"_",$A34,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I34" s="14" t="str">
@@ -3296,7 +3293,7 @@
         <v/>
       </c>
       <c r="H35" s="14" t="str">
-        <f>IF(AND(I35&lt;&gt;"",I35&lt;&gt;0),IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),CONCATENATE(#REF!,"_",$A35,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I35" s="14" t="str">
@@ -3321,7 +3318,7 @@
         <v/>
       </c>
       <c r="H36" s="14" t="str">
-        <f>IF(AND(I36&lt;&gt;"",I36&lt;&gt;0),IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),CONCATENATE(#REF!,"_",$A36,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I36" s="14" t="str">
@@ -3346,7 +3343,7 @@
         <v/>
       </c>
       <c r="H37" s="14" t="str">
-        <f>IF(AND(I37&lt;&gt;"",I37&lt;&gt;0),IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),CONCATENATE(#REF!,"_",$A37,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I37" s="14" t="str">
@@ -3371,7 +3368,7 @@
         <v/>
       </c>
       <c r="H38" s="14" t="str">
-        <f>IF(AND(I38&lt;&gt;"",I38&lt;&gt;0),IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),CONCATENATE(#REF!,"_",$A38,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I38" s="14" t="str">
@@ -3396,7 +3393,7 @@
         <v/>
       </c>
       <c r="H39" s="14" t="str">
-        <f>IF(AND(I39&lt;&gt;"",I39&lt;&gt;0),IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),CONCATENATE(#REF!,"_",$A39,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I39" s="14" t="str">
@@ -3421,7 +3418,7 @@
         <v/>
       </c>
       <c r="H40" s="14" t="str">
-        <f>IF(AND(I40&lt;&gt;"",I40&lt;&gt;0),IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),CONCATENATE(#REF!,"_",$A40,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I40" s="14" t="str">
@@ -3446,7 +3443,7 @@
         <v/>
       </c>
       <c r="H41" s="14" t="str">
-        <f>IF(AND(I41&lt;&gt;"",I41&lt;&gt;0),IF(OR(B41&lt;&gt;"",J41&lt;&gt;""),CONCATENATE(#REF!,"_",$A41,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I41" s="14" t="str">
@@ -3471,7 +3468,7 @@
         <v/>
       </c>
       <c r="H42" s="14" t="str">
-        <f>IF(AND(I42&lt;&gt;"",I42&lt;&gt;0),IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),CONCATENATE(#REF!,"_",$A42,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I42" s="14" t="str">
@@ -3496,7 +3493,7 @@
         <v/>
       </c>
       <c r="H43" s="14" t="str">
-        <f>IF(AND(I43&lt;&gt;"",I43&lt;&gt;0),IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),CONCATENATE(#REF!,"_",$A43,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I43" s="14" t="str">
@@ -3521,7 +3518,7 @@
         <v/>
       </c>
       <c r="H44" s="14" t="str">
-        <f>IF(AND(I44&lt;&gt;"",I44&lt;&gt;0),IF(OR(B44&lt;&gt;"",J44&lt;&gt;""),CONCATENATE(#REF!,"_",$A44,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I44" s="14" t="str">
@@ -3546,7 +3543,7 @@
         <v/>
       </c>
       <c r="H45" s="14" t="str">
-        <f>IF(AND(I45&lt;&gt;"",I45&lt;&gt;0),IF(OR(B45&lt;&gt;"",J45&lt;&gt;""),CONCATENATE(#REF!,"_",$A45,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I45" s="14" t="str">
@@ -3571,7 +3568,7 @@
         <v/>
       </c>
       <c r="H46" s="14" t="str">
-        <f>IF(AND(I46&lt;&gt;"",I46&lt;&gt;0),IF(OR(B46&lt;&gt;"",J46&lt;&gt;""),CONCATENATE(#REF!,"_",$A46,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I46" s="14" t="str">
@@ -3596,7 +3593,7 @@
         <v/>
       </c>
       <c r="H47" s="14" t="str">
-        <f>IF(AND(I47&lt;&gt;"",I47&lt;&gt;0),IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),CONCATENATE(#REF!,"_",$A47,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I47" s="14" t="str">
@@ -3621,7 +3618,7 @@
         <v/>
       </c>
       <c r="H48" s="14" t="str">
-        <f>IF(AND(I48&lt;&gt;"",I48&lt;&gt;0),IF(OR(B48&lt;&gt;"",J48&lt;&gt;""),CONCATENATE(#REF!,"_",$A48,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I48" s="14" t="str">
@@ -3646,7 +3643,7 @@
         <v/>
       </c>
       <c r="H49" s="14" t="str">
-        <f>IF(AND(I49&lt;&gt;"",I49&lt;&gt;0),IF(OR(B49&lt;&gt;"",J49&lt;&gt;""),CONCATENATE(#REF!,"_",$A49,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I49" s="14" t="str">
@@ -3671,7 +3668,7 @@
         <v/>
       </c>
       <c r="H50" s="14" t="str">
-        <f>IF(AND(I50&lt;&gt;"",I50&lt;&gt;0),IF(OR(B50&lt;&gt;"",J50&lt;&gt;""),CONCATENATE(#REF!,"_",$A50,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I50" s="14" t="str">
@@ -3696,7 +3693,7 @@
         <v/>
       </c>
       <c r="H51" s="14" t="str">
-        <f>IF(AND(I51&lt;&gt;"",I51&lt;&gt;0),IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE(#REF!,"_",$A51,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I51" s="14" t="str">
@@ -3721,7 +3718,7 @@
         <v/>
       </c>
       <c r="H52" s="14" t="str">
-        <f>IF(AND(I52&lt;&gt;"",I52&lt;&gt;0),IF(OR(B52&lt;&gt;"",J52&lt;&gt;""),CONCATENATE(#REF!,"_",$A52,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I52" s="14" t="str">
@@ -3746,7 +3743,7 @@
         <v/>
       </c>
       <c r="H53" s="14" t="str">
-        <f>IF(AND(I53&lt;&gt;"",I53&lt;&gt;0),IF(OR(B53&lt;&gt;"",J53&lt;&gt;""),CONCATENATE(#REF!,"_",$A53,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I53" s="14" t="str">
@@ -3771,7 +3768,7 @@
         <v/>
       </c>
       <c r="H54" s="14" t="str">
-        <f>IF(AND(I54&lt;&gt;"",I54&lt;&gt;0),IF(OR(B54&lt;&gt;"",J54&lt;&gt;""),CONCATENATE(#REF!,"_",$A54,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I54" s="14" t="str">
@@ -3796,7 +3793,7 @@
         <v/>
       </c>
       <c r="H55" s="14" t="str">
-        <f>IF(AND(I55&lt;&gt;"",I55&lt;&gt;0),IF(OR(B55&lt;&gt;"",J55&lt;&gt;""),CONCATENATE(#REF!,"_",$A55,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I55" s="14" t="str">
@@ -3821,7 +3818,7 @@
         <v/>
       </c>
       <c r="H56" s="14" t="str">
-        <f>IF(AND(I56&lt;&gt;"",I56&lt;&gt;0),IF(OR(B56&lt;&gt;"",J56&lt;&gt;""),CONCATENATE(#REF!,"_",$A56,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I56" s="14" t="str">
@@ -3846,7 +3843,7 @@
         <v/>
       </c>
       <c r="H57" s="14" t="str">
-        <f>IF(AND(I57&lt;&gt;"",I57&lt;&gt;0),IF(OR(B57&lt;&gt;"",J57&lt;&gt;""),CONCATENATE(#REF!,"_",$A57,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I57" s="14" t="str">
@@ -3871,7 +3868,7 @@
         <v/>
       </c>
       <c r="H58" s="14" t="str">
-        <f>IF(AND(I58&lt;&gt;"",I58&lt;&gt;0),IF(OR(B58&lt;&gt;"",J58&lt;&gt;""),CONCATENATE(#REF!,"_",$A58,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I58" s="14" t="str">
@@ -3896,7 +3893,7 @@
         <v/>
       </c>
       <c r="H59" s="14" t="str">
-        <f>IF(AND(I59&lt;&gt;"",I59&lt;&gt;0),IF(OR(B59&lt;&gt;"",J59&lt;&gt;""),CONCATENATE(#REF!,"_",$A59,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I59" s="14" t="str">
@@ -3921,7 +3918,7 @@
         <v/>
       </c>
       <c r="H60" s="14" t="str">
-        <f>IF(AND(I60&lt;&gt;"",I60&lt;&gt;0),IF(OR(B60&lt;&gt;"",J60&lt;&gt;""),CONCATENATE(#REF!,"_",$A60,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I60" s="14" t="str">
@@ -3946,7 +3943,7 @@
         <v/>
       </c>
       <c r="H61" s="14" t="str">
-        <f>IF(AND(I61&lt;&gt;"",I61&lt;&gt;0),IF(OR(B61&lt;&gt;"",J61&lt;&gt;""),CONCATENATE(#REF!,"_",$A61,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I61" s="14" t="str">
@@ -3971,7 +3968,7 @@
         <v/>
       </c>
       <c r="H62" s="14" t="str">
-        <f>IF(AND(I62&lt;&gt;"",I62&lt;&gt;0),IF(OR(B62&lt;&gt;"",J62&lt;&gt;""),CONCATENATE(#REF!,"_",$A62,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I62" s="14" t="str">
@@ -3996,7 +3993,7 @@
         <v/>
       </c>
       <c r="H63" s="14" t="str">
-        <f>IF(AND(I63&lt;&gt;"",I63&lt;&gt;0),IF(OR(B63&lt;&gt;"",J63&lt;&gt;""),CONCATENATE(#REF!,"_",$A63,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I63" s="14" t="str">
@@ -4021,7 +4018,7 @@
         <v/>
       </c>
       <c r="H64" s="14" t="str">
-        <f>IF(AND(I64&lt;&gt;"",I64&lt;&gt;0),IF(OR(B64&lt;&gt;"",J64&lt;&gt;""),CONCATENATE(#REF!,"_",$A64,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I64" s="14" t="str">
@@ -4046,7 +4043,7 @@
         <v/>
       </c>
       <c r="H65" s="14" t="str">
-        <f>IF(AND(I65&lt;&gt;"",I65&lt;&gt;0),IF(OR(B65&lt;&gt;"",J65&lt;&gt;""),CONCATENATE(#REF!,"_",$A65,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I65" s="14" t="str">
@@ -4071,7 +4068,7 @@
         <v/>
       </c>
       <c r="H66" s="14" t="str">
-        <f>IF(AND(I66&lt;&gt;"",I66&lt;&gt;0),IF(OR(B66&lt;&gt;"",J66&lt;&gt;""),CONCATENATE(#REF!,"_",$A66,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I66" s="14" t="str">
@@ -4096,7 +4093,7 @@
         <v/>
       </c>
       <c r="H67" s="14" t="str">
-        <f>IF(AND(I67&lt;&gt;"",I67&lt;&gt;0),IF(OR(B67&lt;&gt;"",J67&lt;&gt;""),CONCATENATE(#REF!,"_",$A67,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I67" s="14" t="str">
@@ -4121,7 +4118,7 @@
         <v/>
       </c>
       <c r="H68" s="14" t="str">
-        <f>IF(AND(I68&lt;&gt;"",I68&lt;&gt;0),IF(OR(B68&lt;&gt;"",J68&lt;&gt;""),CONCATENATE(#REF!,"_",$A68,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I68" s="14" t="str">
@@ -4146,7 +4143,7 @@
         <v/>
       </c>
       <c r="H69" s="14" t="str">
-        <f>IF(AND(I69&lt;&gt;"",I69&lt;&gt;0),IF(OR(B69&lt;&gt;"",J69&lt;&gt;""),CONCATENATE(#REF!,"_",$A69,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I69" s="14" t="str">
@@ -4171,7 +4168,7 @@
         <v/>
       </c>
       <c r="H70" s="14" t="str">
-        <f>IF(AND(I70&lt;&gt;"",I70&lt;&gt;0),IF(OR(B70&lt;&gt;"",J70&lt;&gt;""),CONCATENATE(#REF!,"_",$A70,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I70" s="14" t="str">
@@ -4196,7 +4193,7 @@
         <v/>
       </c>
       <c r="H71" s="14" t="str">
-        <f>IF(AND(I71&lt;&gt;"",I71&lt;&gt;0),IF(OR(B71&lt;&gt;"",J71&lt;&gt;""),CONCATENATE(#REF!,"_",$A71,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I71" s="14" t="str">
@@ -4221,7 +4218,7 @@
         <v/>
       </c>
       <c r="H72" s="14" t="str">
-        <f>IF(AND(I72&lt;&gt;"",I72&lt;&gt;0),IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),CONCATENATE(#REF!,"_",$A72,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I72" s="14" t="str">
@@ -4246,7 +4243,7 @@
         <v/>
       </c>
       <c r="H73" s="14" t="str">
-        <f>IF(AND(I73&lt;&gt;"",I73&lt;&gt;0),IF(OR(B73&lt;&gt;"",J73&lt;&gt;""),CONCATENATE(#REF!,"_",$A73,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I73" s="14" t="str">
@@ -4271,7 +4268,7 @@
         <v/>
       </c>
       <c r="H74" s="14" t="str">
-        <f>IF(AND(I74&lt;&gt;"",I74&lt;&gt;0),IF(OR(B74&lt;&gt;"",J74&lt;&gt;""),CONCATENATE(#REF!,"_",$A74,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I74" s="14" t="str">
@@ -4296,7 +4293,7 @@
         <v/>
       </c>
       <c r="H75" s="14" t="str">
-        <f>IF(AND(I75&lt;&gt;"",I75&lt;&gt;0),IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE(#REF!,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H75:H108" si="3">IF(AND(I75&lt;&gt;"",I75&lt;&gt;0),IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I75" s="14" t="str">
@@ -4321,7 +4318,7 @@
         <v/>
       </c>
       <c r="H76" s="14" t="str">
-        <f>IF(AND(I76&lt;&gt;"",I76&lt;&gt;0),IF(OR(B76&lt;&gt;"",J76&lt;&gt;""),CONCATENATE(#REF!,"_",$A76,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I76" s="14" t="str">
@@ -4346,7 +4343,7 @@
         <v/>
       </c>
       <c r="H77" s="14" t="str">
-        <f>IF(AND(I77&lt;&gt;"",I77&lt;&gt;0),IF(OR(B77&lt;&gt;"",J77&lt;&gt;""),CONCATENATE(#REF!,"_",$A77,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I77" s="14" t="str">
@@ -4371,7 +4368,7 @@
         <v/>
       </c>
       <c r="H78" s="14" t="str">
-        <f>IF(AND(I78&lt;&gt;"",I78&lt;&gt;0),IF(OR(B78&lt;&gt;"",J78&lt;&gt;""),CONCATENATE(#REF!,"_",$A78,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I78" s="14" t="str">
@@ -4396,7 +4393,7 @@
         <v/>
       </c>
       <c r="H79" s="14" t="str">
-        <f>IF(AND(I79&lt;&gt;"",I79&lt;&gt;0),IF(OR(B79&lt;&gt;"",J79&lt;&gt;""),CONCATENATE(#REF!,"_",$A79,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I79" s="14" t="str">
@@ -4421,7 +4418,7 @@
         <v/>
       </c>
       <c r="H80" s="14" t="str">
-        <f>IF(AND(I80&lt;&gt;"",I80&lt;&gt;0),IF(OR(B80&lt;&gt;"",J80&lt;&gt;""),CONCATENATE(#REF!,"_",$A80,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I80" s="14" t="str">
@@ -4446,7 +4443,7 @@
         <v/>
       </c>
       <c r="H81" s="14" t="str">
-        <f>IF(AND(I81&lt;&gt;"",I81&lt;&gt;0),IF(OR(B81&lt;&gt;"",J81&lt;&gt;""),CONCATENATE(#REF!,"_",$A81,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I81" s="14" t="str">
@@ -4471,7 +4468,7 @@
         <v/>
       </c>
       <c r="H82" s="14" t="str">
-        <f>IF(AND(I82&lt;&gt;"",I82&lt;&gt;0),IF(OR(B82&lt;&gt;"",J82&lt;&gt;""),CONCATENATE(#REF!,"_",$A82,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I82" s="14" t="str">
@@ -4496,7 +4493,7 @@
         <v/>
       </c>
       <c r="H83" s="14" t="str">
-        <f>IF(AND(I83&lt;&gt;"",I83&lt;&gt;0),IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE(#REF!,"_",$A83,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I83" s="14" t="str">
@@ -4521,7 +4518,7 @@
         <v/>
       </c>
       <c r="H84" s="14" t="str">
-        <f>IF(AND(I84&lt;&gt;"",I84&lt;&gt;0),IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(#REF!,"_",$A84,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I84" s="14" t="str">
@@ -4546,7 +4543,7 @@
         <v/>
       </c>
       <c r="H85" s="14" t="str">
-        <f>IF(AND(I85&lt;&gt;"",I85&lt;&gt;0),IF(OR(B85&lt;&gt;"",J85&lt;&gt;""),CONCATENATE(#REF!,"_",$A85,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I85" s="14" t="str">
@@ -4571,7 +4568,7 @@
         <v/>
       </c>
       <c r="H86" s="14" t="str">
-        <f>IF(AND(I86&lt;&gt;"",I86&lt;&gt;0),IF(OR(B86&lt;&gt;"",J86&lt;&gt;""),CONCATENATE(#REF!,"_",$A86,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I86" s="14" t="str">
@@ -4596,7 +4593,7 @@
         <v/>
       </c>
       <c r="H87" s="14" t="str">
-        <f>IF(AND(I87&lt;&gt;"",I87&lt;&gt;0),IF(OR(B87&lt;&gt;"",J87&lt;&gt;""),CONCATENATE(#REF!,"_",$A87,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I87" s="14" t="str">
@@ -4621,7 +4618,7 @@
         <v/>
       </c>
       <c r="H88" s="14" t="str">
-        <f>IF(AND(I88&lt;&gt;"",I88&lt;&gt;0),IF(OR(B88&lt;&gt;"",J88&lt;&gt;""),CONCATENATE(#REF!,"_",$A88,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I88" s="14" t="str">
@@ -4646,7 +4643,7 @@
         <v/>
       </c>
       <c r="H89" s="14" t="str">
-        <f>IF(AND(I89&lt;&gt;"",I89&lt;&gt;0),IF(OR(B89&lt;&gt;"",J89&lt;&gt;""),CONCATENATE(#REF!,"_",$A89,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I89" s="14" t="str">
@@ -4671,7 +4668,7 @@
         <v/>
       </c>
       <c r="H90" s="14" t="str">
-        <f>IF(AND(I90&lt;&gt;"",I90&lt;&gt;0),IF(OR(B90&lt;&gt;"",J90&lt;&gt;""),CONCATENATE(#REF!,"_",$A90,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I90" s="14" t="str">
@@ -4696,7 +4693,7 @@
         <v/>
       </c>
       <c r="H91" s="14" t="str">
-        <f>IF(AND(I91&lt;&gt;"",I91&lt;&gt;0),IF(OR(B91&lt;&gt;"",J91&lt;&gt;""),CONCATENATE(#REF!,"_",$A91,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I91" s="14" t="str">
@@ -4721,7 +4718,7 @@
         <v/>
       </c>
       <c r="H92" s="14" t="str">
-        <f>IF(AND(I92&lt;&gt;"",I92&lt;&gt;0),IF(OR(B92&lt;&gt;"",J92&lt;&gt;""),CONCATENATE(#REF!,"_",$A92,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I92" s="14" t="str">
@@ -4746,7 +4743,7 @@
         <v/>
       </c>
       <c r="H93" s="14" t="str">
-        <f>IF(AND(I93&lt;&gt;"",I93&lt;&gt;0),IF(OR(B93&lt;&gt;"",J93&lt;&gt;""),CONCATENATE(#REF!,"_",$A93,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I93" s="14" t="str">
@@ -4771,7 +4768,7 @@
         <v/>
       </c>
       <c r="H94" s="14" t="str">
-        <f>IF(AND(I94&lt;&gt;"",I94&lt;&gt;0),IF(OR(B94&lt;&gt;"",J94&lt;&gt;""),CONCATENATE(#REF!,"_",$A94,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I94" s="14" t="str">
@@ -4796,7 +4793,7 @@
         <v/>
       </c>
       <c r="H95" s="14" t="str">
-        <f>IF(AND(I95&lt;&gt;"",I95&lt;&gt;0),IF(OR(B95&lt;&gt;"",J95&lt;&gt;""),CONCATENATE(#REF!,"_",$A95,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I95" s="14" t="str">
@@ -4821,7 +4818,7 @@
         <v/>
       </c>
       <c r="H96" s="14" t="str">
-        <f>IF(AND(I96&lt;&gt;"",I96&lt;&gt;0),IF(OR(B96&lt;&gt;"",J96&lt;&gt;""),CONCATENATE(#REF!,"_",$A96,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I96" s="14" t="str">
@@ -4846,7 +4843,7 @@
         <v/>
       </c>
       <c r="H97" s="14" t="str">
-        <f>IF(AND(I97&lt;&gt;"",I97&lt;&gt;0),IF(OR(B97&lt;&gt;"",J97&lt;&gt;""),CONCATENATE(#REF!,"_",$A97,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I97" s="14" t="str">
@@ -4871,7 +4868,7 @@
         <v/>
       </c>
       <c r="H98" s="14" t="str">
-        <f>IF(AND(I98&lt;&gt;"",I98&lt;&gt;0),IF(OR(B98&lt;&gt;"",J98&lt;&gt;""),CONCATENATE(#REF!,"_",$A98,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I98" s="14" t="str">
@@ -4896,7 +4893,7 @@
         <v/>
       </c>
       <c r="H99" s="14" t="str">
-        <f>IF(AND(I99&lt;&gt;"",I99&lt;&gt;0),IF(OR(B99&lt;&gt;"",J99&lt;&gt;""),CONCATENATE(#REF!,"_",$A99,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I99" s="14" t="str">
@@ -4921,7 +4918,7 @@
         <v/>
       </c>
       <c r="H100" s="14" t="str">
-        <f>IF(AND(I100&lt;&gt;"",I100&lt;&gt;0),IF(OR(B100&lt;&gt;"",J100&lt;&gt;""),CONCATENATE(#REF!,"_",$A100,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I100" s="14" t="str">
@@ -4946,7 +4943,7 @@
         <v/>
       </c>
       <c r="H101" s="14" t="str">
-        <f>IF(AND(I101&lt;&gt;"",I101&lt;&gt;0),IF(OR(B101&lt;&gt;"",J101&lt;&gt;""),CONCATENATE(#REF!,"_",$A101,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I101" s="14" t="str">
@@ -4971,7 +4968,7 @@
         <v/>
       </c>
       <c r="H102" s="14" t="str">
-        <f>IF(AND(I102&lt;&gt;"",I102&lt;&gt;0),IF(OR(B102&lt;&gt;"",J102&lt;&gt;""),CONCATENATE(#REF!,"_",$A102,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I102" s="14" t="str">
@@ -4996,7 +4993,7 @@
         <v/>
       </c>
       <c r="H103" s="14" t="str">
-        <f>IF(AND(I103&lt;&gt;"",I103&lt;&gt;0),IF(OR(B103&lt;&gt;"",J103&lt;&gt;""),CONCATENATE(#REF!,"_",$A103,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I103" s="14" t="str">
@@ -5021,7 +5018,7 @@
         <v/>
       </c>
       <c r="H104" s="14" t="str">
-        <f>IF(AND(I104&lt;&gt;"",I104&lt;&gt;0),IF(OR(B104&lt;&gt;"",J104&lt;&gt;""),CONCATENATE(#REF!,"_",$A104,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I104" s="14" t="str">
@@ -5046,7 +5043,7 @@
         <v/>
       </c>
       <c r="H105" s="14" t="str">
-        <f>IF(AND(I105&lt;&gt;"",I105&lt;&gt;0),IF(OR(B105&lt;&gt;"",J105&lt;&gt;""),CONCATENATE(#REF!,"_",$A105,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I105" s="14" t="str">
@@ -5071,7 +5068,7 @@
         <v/>
       </c>
       <c r="H106" s="14" t="str">
-        <f>IF(AND(I106&lt;&gt;"",I106&lt;&gt;0),IF(OR(B106&lt;&gt;"",J106&lt;&gt;""),CONCATENATE(#REF!,"_",$A106,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I106" s="14" t="str">
@@ -5096,7 +5093,7 @@
         <v/>
       </c>
       <c r="H107" s="14" t="str">
-        <f>IF(AND(I107&lt;&gt;"",I107&lt;&gt;0),IF(OR(B107&lt;&gt;"",J107&lt;&gt;""),CONCATENATE(#REF!,"_",$A107,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I107" s="14" t="str">
@@ -5121,7 +5118,7 @@
         <v/>
       </c>
       <c r="H108" s="14" t="str">
-        <f>IF(AND(I108&lt;&gt;"",I108&lt;&gt;0),IF(OR(B108&lt;&gt;"",J108&lt;&gt;""),CONCATENATE(#REF!,"_",$A108,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I108" s="14" t="str">
